--- a/Face-Recognition-Attendance-System-master/8.xlsx
+++ b/Face-Recognition-Attendance-System-master/8.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="AD1:AD5"/>
+  <dimension ref="AE3:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -353,29 +353,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="AD5" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
